--- a/README.xlsx
+++ b/README.xlsx
@@ -1923,8 +1923,8 @@
   <sheetPr/>
   <dimension ref="A1:F120"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="D71" sqref="D71"/>
+    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1" outlineLevelCol="5"/>
